--- a/tests/databooks/databook_service.xlsx
+++ b/tests/databooks/databook_service.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9BC8075-D041-D34C-9081-25F85C553FB3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6AAC00-5522-4919-B165-63A54C4E40DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Population Definitions" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="4" r:id="rId2"/>
     <sheet name="State Variables" sheetId="5" r:id="rId3"/>
-    <sheet name="Metadata" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1067,7 +1066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -1154,15 +1153,6 @@
   </si>
   <si>
     <t>Proportion with successful outcomes</t>
-  </si>
-  <si>
-    <t>data_start</t>
-  </si>
-  <si>
-    <t>data_end</t>
-  </si>
-  <si>
-    <t>data_dt</t>
   </si>
   <si>
     <t>adults</t>
@@ -1245,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,6 +1254,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,12 +1605,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,12 +1618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1640,20 +1636,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1675,10 +1669,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1703,8 +1697,11 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1726,10 +1723,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1748,8 +1745,11 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1771,10 +1771,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1795,8 +1795,11 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1818,10 +1821,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1842,8 +1845,11 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1865,10 +1871,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1887,8 +1893,11 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1910,10 +1919,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1932,8 +1941,11 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1955,10 +1967,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1993,18 +2005,18 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2027,10 +2039,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2050,7 +2062,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2073,10 +2085,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2096,7 +2108,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2119,10 +2131,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2142,7 +2154,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2165,10 +2177,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -2188,7 +2200,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2211,10 +2223,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2234,7 +2246,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2257,10 +2269,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -2279,7 +2291,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -2302,10 +2314,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2324,7 +2336,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2347,10 +2359,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2369,7 +2381,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -2392,10 +2404,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -2414,7 +2426,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -2437,10 +2449,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -2459,7 +2471,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -2482,10 +2494,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2505,7 +2517,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2528,10 +2540,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2551,7 +2563,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
@@ -2574,10 +2586,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -2597,7 +2609,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2620,10 +2632,10 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="str">
-        <f>'Population Definitions'!$B$2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -2655,41 +2667,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>